--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Mozambique/Pandémie_de_Covid-19_au_Mozambique.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Mozambique/Pandémie_de_Covid-19_au_Mozambique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Mozambique</t>
+          <t>Pandémie_de_Covid-19_au_Mozambique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Mozambique démarre officiellement le 22 mars 2020. À la date du 7 octobre 2022, le bilan est de 2 222 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Mozambique</t>
+          <t>Pandémie_de_Covid-19_au_Mozambique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas est constaté le 22 mars 2020[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas est constaté le 22 mars 2020.
 Le cap des 10 cas est atteint le 1er avril 2020.
 Le cap des 100 cas est dépassé le 11 mai 2020. Le nombre de cas est de 103.
-Le premier mort est constaté le 25 mai 2020[3].
+Le premier mort est constaté le 25 mai 2020.
 Le cap des 1 000 cas est dépassé le 6 juillet 2020. Le nombre de cas est de 1 012.
 Le cap des 10 morts est atteint le 18 juillet 2020.
 Le cap des 10 000 cas est dépassé le 11 octobre 2020. Le nombre de cas est de 10 001.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Mozambique</t>
+          <t>Pandémie_de_Covid-19_au_Mozambique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,6 +567,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Mozambique</t>
+          <t>Pandémie_de_Covid-19_au_Mozambique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
